--- a/시장분석용_정보/시장분석용_4413131000.xlsx
+++ b/시장분석용_정보/시장분석용_4413131000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV30"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>1073</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>3128209327</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4413131000</v>
@@ -708,7 +612,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>2311859</v>
@@ -720,117 +624,69 @@
         <v>21690</v>
       </c>
       <c r="O2">
-        <v>86.47</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.53</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>24.83</v>
+        <v>18.44</v>
       </c>
       <c r="S2">
-        <v>12.73</v>
+        <v>1.73</v>
       </c>
       <c r="T2">
-        <v>15.58</v>
+        <v>1.24</v>
       </c>
       <c r="U2">
-        <v>22.52</v>
+        <v>2.49</v>
       </c>
       <c r="V2">
-        <v>10.81</v>
+        <v>10.12</v>
       </c>
       <c r="W2">
-        <v>13.53</v>
+        <v>20.17</v>
       </c>
       <c r="X2">
-        <v>22.98</v>
+        <v>45.8</v>
       </c>
       <c r="Y2">
-        <v>34.49</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>42.53</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>22.13</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>25.15</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>38.24</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>13.69</v>
       </c>
       <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>18.44</v>
-      </c>
-      <c r="AI2">
-        <v>1.73</v>
-      </c>
-      <c r="AJ2">
-        <v>1.24</v>
-      </c>
-      <c r="AK2">
-        <v>2.49</v>
-      </c>
-      <c r="AL2">
-        <v>10.12</v>
-      </c>
-      <c r="AM2">
-        <v>20.17</v>
-      </c>
-      <c r="AN2">
-        <v>45.8</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>22.13</v>
-      </c>
-      <c r="AS2">
-        <v>25.15</v>
-      </c>
-      <c r="AT2">
-        <v>38.24</v>
-      </c>
-      <c r="AU2">
-        <v>13.69</v>
-      </c>
-      <c r="AV2">
         <v>0.78</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>2770</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>3128209327</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4413131000</v>
@@ -854,7 +710,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>1872265</v>
@@ -866,117 +722,69 @@
         <v>12840</v>
       </c>
       <c r="O3">
-        <v>94.7</v>
+        <v>3.64</v>
       </c>
       <c r="P3">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="R3">
-        <v>18.04</v>
+        <v>1.29</v>
       </c>
       <c r="S3">
-        <v>3.96</v>
+        <v>3.34</v>
       </c>
       <c r="T3">
-        <v>41.37</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>22.83</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="V3">
-        <v>8.5</v>
+        <v>8.42</v>
       </c>
       <c r="W3">
-        <v>5.3</v>
+        <v>6.87</v>
       </c>
       <c r="X3">
-        <v>25.17</v>
+        <v>64.95</v>
       </c>
       <c r="Y3">
-        <v>55.23</v>
+        <v>2.28</v>
       </c>
       <c r="Z3">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>2.28</v>
-      </c>
-      <c r="AH3">
-        <v>1.29</v>
-      </c>
-      <c r="AI3">
-        <v>3.34</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="AL3">
-        <v>8.42</v>
-      </c>
-      <c r="AM3">
-        <v>6.87</v>
-      </c>
-      <c r="AN3">
-        <v>64.95</v>
-      </c>
-      <c r="AO3">
-        <v>2.28</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>6.18</v>
-      </c>
-      <c r="AS3">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
         <v>20.33</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>4458</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -988,10 +796,10 @@
         <v>3128209327</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4413131000</v>
@@ -1000,7 +808,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>1000623</v>
@@ -1012,52 +820,52 @@
         <v>8016</v>
       </c>
       <c r="O4">
-        <v>87.28</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.72</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>45.76</v>
+        <v>2.4</v>
       </c>
       <c r="S4">
-        <v>12.77</v>
+        <v>0.75</v>
       </c>
       <c r="T4">
-        <v>9.380000000000001</v>
+        <v>2.69</v>
       </c>
       <c r="U4">
-        <v>10.23</v>
+        <v>7.04</v>
       </c>
       <c r="V4">
-        <v>9.130000000000001</v>
+        <v>43.26</v>
       </c>
       <c r="W4">
-        <v>12.72</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>41.07</v>
+        <v>43.86</v>
       </c>
       <c r="Y4">
-        <v>54.09</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>4.84</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>91.87</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1065,64 +873,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>2.4</v>
-      </c>
-      <c r="AI4">
-        <v>0.75</v>
-      </c>
-      <c r="AJ4">
-        <v>2.69</v>
-      </c>
-      <c r="AK4">
-        <v>7.04</v>
-      </c>
-      <c r="AL4">
-        <v>43.26</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>43.86</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0.75</v>
-      </c>
-      <c r="AS4">
-        <v>91.87</v>
-      </c>
-      <c r="AT4">
-        <v>7.39</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>6140</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1134,10 +894,10 @@
         <v>3128209327</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4413131000</v>
@@ -1146,7 +906,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>994674</v>
@@ -1158,117 +918,69 @@
         <v>8233</v>
       </c>
       <c r="O5">
-        <v>97.56999999999999</v>
+        <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>11.39</v>
+      </c>
+      <c r="S5">
         <v>2.43</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>2.94</v>
-      </c>
-      <c r="S5">
-        <v>29.76</v>
-      </c>
       <c r="T5">
-        <v>61.34</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.39</v>
+        <v>58.6</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>10.43</v>
       </c>
       <c r="X5">
-        <v>11.79</v>
+        <v>17.16</v>
       </c>
       <c r="Y5">
-        <v>24.75</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>63.46</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>76.16</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>18.98</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>11.39</v>
-      </c>
-      <c r="AI5">
-        <v>2.43</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>58.6</v>
-      </c>
-      <c r="AM5">
-        <v>10.43</v>
-      </c>
-      <c r="AN5">
-        <v>17.16</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>2.43</v>
-      </c>
-      <c r="AS5">
-        <v>76.16</v>
-      </c>
-      <c r="AT5">
-        <v>18.98</v>
-      </c>
-      <c r="AU5">
-        <v>2.43</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>7842</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1280,10 +992,10 @@
         <v>3128209327</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4413131000</v>
@@ -1292,7 +1004,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>1627446</v>
@@ -1304,117 +1016,69 @@
         <v>8890</v>
       </c>
       <c r="O6">
-        <v>95.91</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>29.87</v>
+        <v>1.97</v>
       </c>
       <c r="S6">
-        <v>5.84</v>
+        <v>32.46</v>
       </c>
       <c r="T6">
-        <v>38.25</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>18.6</v>
+        <v>1.69</v>
       </c>
       <c r="V6">
-        <v>3.34</v>
+        <v>1.5</v>
       </c>
       <c r="W6">
-        <v>4.09</v>
+        <v>41.1</v>
       </c>
       <c r="X6">
-        <v>29.72</v>
+        <v>21.28</v>
       </c>
       <c r="Y6">
-        <v>33.03</v>
+        <v>1.69</v>
       </c>
       <c r="Z6">
-        <v>37.26</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>28.18</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>36.15</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>6.86</v>
       </c>
       <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>1.97</v>
-      </c>
-      <c r="AI6">
-        <v>32.46</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>1.69</v>
-      </c>
-      <c r="AL6">
-        <v>1.5</v>
-      </c>
-      <c r="AM6">
-        <v>41.1</v>
-      </c>
-      <c r="AN6">
-        <v>21.28</v>
-      </c>
-      <c r="AO6">
-        <v>1.69</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>1.06</v>
-      </c>
-      <c r="AS6">
-        <v>28.18</v>
-      </c>
-      <c r="AT6">
-        <v>36.15</v>
-      </c>
-      <c r="AU6">
-        <v>6.86</v>
-      </c>
-      <c r="AV6">
         <v>26.06</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>9551</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1426,10 +1090,10 @@
         <v>3128209327</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4413131000</v>
@@ -1438,7 +1102,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>2494438</v>
@@ -1450,117 +1114,69 @@
         <v>15640</v>
       </c>
       <c r="O7">
-        <v>82.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>17.35</v>
+        <v>41.79</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="R7">
-        <v>12.91</v>
+        <v>6.94</v>
       </c>
       <c r="S7">
-        <v>36.08</v>
+        <v>11.45</v>
       </c>
       <c r="T7">
-        <v>16.64</v>
+        <v>1.11</v>
       </c>
       <c r="U7">
-        <v>14.38</v>
+        <v>3.49</v>
       </c>
       <c r="V7">
-        <v>2.64</v>
+        <v>1.13</v>
       </c>
       <c r="W7">
-        <v>17.35</v>
+        <v>22.87</v>
       </c>
       <c r="X7">
-        <v>60.74</v>
+        <v>1.59</v>
       </c>
       <c r="Y7">
-        <v>36.25</v>
+        <v>3.49</v>
       </c>
       <c r="Z7">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>50.66</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>43.97</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>41.79</v>
-      </c>
-      <c r="AG7">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AH7">
-        <v>6.94</v>
-      </c>
-      <c r="AI7">
-        <v>11.45</v>
-      </c>
-      <c r="AJ7">
         <v>1.11</v>
       </c>
-      <c r="AK7">
-        <v>3.49</v>
-      </c>
-      <c r="AL7">
-        <v>1.13</v>
-      </c>
-      <c r="AM7">
-        <v>22.87</v>
-      </c>
-      <c r="AN7">
-        <v>1.59</v>
-      </c>
-      <c r="AO7">
-        <v>3.49</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>50.66</v>
-      </c>
-      <c r="AS7">
-        <v>0.76</v>
-      </c>
-      <c r="AT7">
-        <v>43.97</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>1.11</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>11260</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202007</v>
@@ -1572,10 +1188,10 @@
         <v>3128209327</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4413131000</v>
@@ -1584,7 +1200,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>1404631</v>
@@ -1596,117 +1212,69 @@
         <v>10019</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>32.13</v>
+        <v>5.36</v>
       </c>
       <c r="S8">
-        <v>1.37</v>
+        <v>30.79</v>
       </c>
       <c r="T8">
-        <v>8.390000000000001</v>
+        <v>2.48</v>
       </c>
       <c r="U8">
-        <v>50.09</v>
+        <v>4.03</v>
       </c>
       <c r="V8">
-        <v>8.02</v>
+        <v>4.03</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>6.91</v>
       </c>
       <c r="X8">
-        <v>38.89</v>
+        <v>44.36</v>
       </c>
       <c r="Y8">
-        <v>27.58</v>
+        <v>2.03</v>
       </c>
       <c r="Z8">
-        <v>33.53</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>36.78</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>48.91</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>12.27</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>2.03</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>5.36</v>
-      </c>
-      <c r="AI8">
-        <v>30.79</v>
-      </c>
-      <c r="AJ8">
-        <v>2.48</v>
-      </c>
-      <c r="AK8">
-        <v>4.03</v>
-      </c>
-      <c r="AL8">
-        <v>4.03</v>
-      </c>
-      <c r="AM8">
-        <v>6.91</v>
-      </c>
-      <c r="AN8">
-        <v>44.36</v>
-      </c>
-      <c r="AO8">
-        <v>2.03</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>36.78</v>
-      </c>
-      <c r="AS8">
-        <v>48.91</v>
-      </c>
-      <c r="AT8">
-        <v>12.27</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>12962</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202008</v>
@@ -1718,10 +1286,10 @@
         <v>3128209327</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4413131000</v>
@@ -1730,7 +1298,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>2547728</v>
@@ -1742,117 +1310,69 @@
         <v>14997</v>
       </c>
       <c r="O9">
-        <v>95.45</v>
+        <v>1.09</v>
       </c>
       <c r="P9">
-        <v>4.55</v>
+        <v>14.14</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>22.89</v>
+        <v>2.47</v>
       </c>
       <c r="S9">
-        <v>15.3</v>
+        <v>11.46</v>
       </c>
       <c r="T9">
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>23.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="V9">
-        <v>27.26</v>
+        <v>1.78</v>
       </c>
       <c r="W9">
-        <v>4.55</v>
+        <v>27.3</v>
       </c>
       <c r="X9">
-        <v>29.52</v>
+        <v>41.08</v>
       </c>
       <c r="Y9">
-        <v>36.39</v>
+        <v>1.09</v>
       </c>
       <c r="Z9">
-        <v>34.09</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>35.04</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>36.49</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>23.52</v>
       </c>
       <c r="AE9">
-        <v>1.09</v>
+        <v>3.86</v>
       </c>
       <c r="AF9">
-        <v>14.14</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>2.47</v>
-      </c>
-      <c r="AI9">
-        <v>11.46</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AL9">
-        <v>1.78</v>
-      </c>
-      <c r="AM9">
-        <v>27.3</v>
-      </c>
-      <c r="AN9">
-        <v>41.08</v>
-      </c>
-      <c r="AO9">
-        <v>1.09</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>35.04</v>
-      </c>
-      <c r="AS9">
-        <v>36.49</v>
-      </c>
-      <c r="AT9">
-        <v>23.52</v>
-      </c>
-      <c r="AU9">
-        <v>3.86</v>
-      </c>
-      <c r="AV9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>14658</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202009</v>
@@ -1864,10 +1384,10 @@
         <v>3128209327</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4413131000</v>
@@ -1876,7 +1396,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>2029772</v>
@@ -1888,117 +1408,69 @@
         <v>11247</v>
       </c>
       <c r="O10">
-        <v>67.05</v>
+        <v>10.75</v>
       </c>
       <c r="P10">
-        <v>32.95</v>
+        <v>1.75</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>6.41</v>
+        <v>27.41</v>
       </c>
       <c r="S10">
-        <v>34.86</v>
+        <v>6.49</v>
       </c>
       <c r="T10">
-        <v>18.65</v>
+        <v>24.84</v>
       </c>
       <c r="U10">
-        <v>2.54</v>
+        <v>3.43</v>
       </c>
       <c r="V10">
-        <v>4.6</v>
+        <v>2.98</v>
       </c>
       <c r="W10">
-        <v>32.95</v>
+        <v>8.16</v>
       </c>
       <c r="X10">
-        <v>41.42</v>
+        <v>14.2</v>
       </c>
       <c r="Y10">
-        <v>30.96</v>
+        <v>30.1</v>
       </c>
       <c r="Z10">
-        <v>27.62</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>53.4</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>7.51</v>
       </c>
       <c r="AE10">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1.75</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>27.41</v>
-      </c>
-      <c r="AI10">
-        <v>6.49</v>
-      </c>
-      <c r="AJ10">
-        <v>24.84</v>
-      </c>
-      <c r="AK10">
-        <v>3.43</v>
-      </c>
-      <c r="AL10">
-        <v>2.98</v>
-      </c>
-      <c r="AM10">
-        <v>8.16</v>
-      </c>
-      <c r="AN10">
-        <v>14.2</v>
-      </c>
-      <c r="AO10">
-        <v>30.1</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>9</v>
-      </c>
-      <c r="AS10">
-        <v>53.4</v>
-      </c>
-      <c r="AT10">
-        <v>7.51</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>16354</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202010</v>
@@ -2010,10 +1482,10 @@
         <v>3128209327</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4413131000</v>
@@ -2022,7 +1494,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>251872</v>
@@ -2034,37 +1506,37 @@
         <v>2683</v>
       </c>
       <c r="O11">
-        <v>90.06</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>9.94</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>10.56</v>
+        <v>7.04</v>
       </c>
       <c r="S11">
-        <v>15.11</v>
+        <v>3.73</v>
       </c>
       <c r="T11">
-        <v>27.12</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>26.71</v>
+        <v>8.49</v>
       </c>
       <c r="V11">
-        <v>10.56</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>9.94</v>
+        <v>51.14</v>
       </c>
       <c r="X11">
-        <v>50.31</v>
+        <v>29.61</v>
       </c>
       <c r="Y11">
-        <v>49.69</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2073,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>31.88</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>26.29</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>41.82</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2087,64 +1559,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>7.04</v>
-      </c>
-      <c r="AI11">
-        <v>3.73</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>8.49</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>51.14</v>
-      </c>
-      <c r="AN11">
-        <v>29.61</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>31.88</v>
-      </c>
-      <c r="AS11">
-        <v>26.29</v>
-      </c>
-      <c r="AT11">
-        <v>41.82</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>18062</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202011</v>
@@ -2156,10 +1580,10 @@
         <v>3128209327</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4413131000</v>
@@ -2168,7 +1592,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>403142</v>
@@ -2180,40 +1604,40 @@
         <v>3140</v>
       </c>
       <c r="O12">
-        <v>95.67</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>11.21</v>
       </c>
       <c r="R12">
-        <v>16.94</v>
+        <v>12.99</v>
       </c>
       <c r="S12">
-        <v>8.539999999999999</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>24.97</v>
+        <v>6.88</v>
       </c>
       <c r="U12">
-        <v>24.59</v>
+        <v>12.61</v>
       </c>
       <c r="V12">
-        <v>20.64</v>
+        <v>13.63</v>
       </c>
       <c r="W12">
-        <v>4.33</v>
+        <v>42.68</v>
       </c>
       <c r="X12">
-        <v>61.4</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>29.3</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -2222,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>64.33</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>35.67</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2233,64 +1657,16 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>11.21</v>
-      </c>
-      <c r="AH12">
-        <v>12.99</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>6.88</v>
-      </c>
-      <c r="AK12">
-        <v>12.61</v>
-      </c>
-      <c r="AL12">
-        <v>13.63</v>
-      </c>
-      <c r="AM12">
-        <v>42.68</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>64.33</v>
-      </c>
-      <c r="AT12">
-        <v>35.67</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>19763</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202012</v>
@@ -2302,10 +1678,10 @@
         <v>3128209327</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4413131000</v>
@@ -2314,7 +1690,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>687805</v>
@@ -2326,117 +1702,69 @@
         <v>8424</v>
       </c>
       <c r="O13">
-        <v>96.88</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>6.31</v>
+        <v>2.52</v>
       </c>
       <c r="S13">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>37.01</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>36.87</v>
+        <v>5.64</v>
       </c>
       <c r="V13">
-        <v>11.57</v>
+        <v>40.88</v>
       </c>
       <c r="W13">
-        <v>3.12</v>
+        <v>21.96</v>
       </c>
       <c r="X13">
-        <v>10.53</v>
+        <v>29</v>
       </c>
       <c r="Y13">
-        <v>50.07</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>39.39</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>37.16</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>2.52</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>5.64</v>
-      </c>
-      <c r="AL13">
-        <v>40.88</v>
-      </c>
-      <c r="AM13">
-        <v>21.96</v>
-      </c>
-      <c r="AN13">
-        <v>29</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>2.52</v>
-      </c>
-      <c r="AS13">
-        <v>37.16</v>
-      </c>
-      <c r="AT13">
-        <v>48.3</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
         <v>12.02</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>21474</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202101</v>
@@ -2448,10 +1776,10 @@
         <v>3128209327</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>4413131000</v>
@@ -2460,7 +1788,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>414094</v>
@@ -2472,117 +1800,69 @@
         <v>8989</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="R14">
-        <v>10.51</v>
+        <v>12.86</v>
       </c>
       <c r="S14">
-        <v>7.91</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>15.45</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>66.13</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="X14">
-        <v>12.36</v>
+        <v>71.2</v>
       </c>
       <c r="Y14">
-        <v>81.58</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>12.86</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>12.98</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>69.84</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>6.06</v>
-      </c>
-      <c r="AH14">
-        <v>12.86</v>
-      </c>
-      <c r="AI14">
-        <v>1.85</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="AN14">
-        <v>71.2</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>12.86</v>
-      </c>
-      <c r="AS14">
-        <v>12.98</v>
-      </c>
-      <c r="AT14">
-        <v>69.84</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
         <v>4.33</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>23177</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202102</v>
@@ -2594,10 +1874,10 @@
         <v>3128209327</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>4413131000</v>
@@ -2606,7 +1886,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>863188</v>
@@ -2618,7 +1898,7 @@
         <v>33760</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2627,43 +1907,43 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>33.95</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="T15">
-        <v>66.05</v>
+        <v>3.26</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>30.69</v>
       </c>
       <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
         <v>60.31</v>
       </c>
-      <c r="Y15">
-        <v>37.2</v>
-      </c>
-      <c r="Z15">
-        <v>2.49</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
       <c r="AC15">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>36.43</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2671,64 +1951,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>60.31</v>
-      </c>
-      <c r="AJ15">
-        <v>3.26</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>5.75</v>
-      </c>
-      <c r="AM15">
-        <v>30.69</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>60.31</v>
-      </c>
-      <c r="AS15">
-        <v>3.26</v>
-      </c>
-      <c r="AT15">
-        <v>36.43</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>24886</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202103</v>
@@ -2740,10 +1972,10 @@
         <v>3128209327</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>4413131000</v>
@@ -2752,7 +1984,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>1308132</v>
@@ -2764,117 +1996,69 @@
         <v>19446</v>
       </c>
       <c r="O16">
-        <v>95.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S16">
-        <v>37.26</v>
+        <v>33</v>
       </c>
       <c r="T16">
-        <v>23.34</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>32.87</v>
+        <v>2.47</v>
       </c>
       <c r="W16">
-        <v>4.35</v>
+        <v>36.47</v>
       </c>
       <c r="X16">
-        <v>40.78</v>
+        <v>24.42</v>
       </c>
       <c r="Y16">
-        <v>55.62</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>59.89</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>30.57</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>2.22</v>
-      </c>
-      <c r="AH16">
         <v>1.42</v>
       </c>
-      <c r="AI16">
-        <v>33</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>2.47</v>
-      </c>
-      <c r="AM16">
-        <v>36.47</v>
-      </c>
-      <c r="AN16">
-        <v>24.42</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>5.9</v>
-      </c>
-      <c r="AS16">
-        <v>59.89</v>
-      </c>
-      <c r="AT16">
-        <v>30.57</v>
-      </c>
-      <c r="AU16">
-        <v>2.22</v>
-      </c>
-      <c r="AV16">
-        <v>1.42</v>
-      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>26602</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>202104</v>
@@ -2886,10 +2070,10 @@
         <v>3128209327</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>4413131000</v>
@@ -2898,7 +2082,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <v>2811638</v>
@@ -2910,117 +2094,69 @@
         <v>22975</v>
       </c>
       <c r="O17">
-        <v>77.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>22.18</v>
+        <v>0.89</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>22.14</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="S17">
-        <v>5.11</v>
+        <v>36.6</v>
       </c>
       <c r="T17">
-        <v>27.09</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="V17">
-        <v>21.36</v>
+        <v>20.93</v>
       </c>
       <c r="W17">
-        <v>22.18</v>
+        <v>1.8</v>
       </c>
       <c r="X17">
-        <v>11.32</v>
+        <v>29.27</v>
       </c>
       <c r="Y17">
-        <v>67.27</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>21.42</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>18.77</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>59.54</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>20.69</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0.89</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AI17">
-        <v>36.6</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>1.89</v>
-      </c>
-      <c r="AL17">
-        <v>20.93</v>
-      </c>
-      <c r="AM17">
-        <v>1.8</v>
-      </c>
-      <c r="AN17">
-        <v>29.27</v>
-      </c>
-      <c r="AO17">
-        <v>1</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>18.77</v>
-      </c>
-      <c r="AS17">
-        <v>59.54</v>
-      </c>
-      <c r="AT17">
-        <v>20.69</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>28318</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>202105</v>
@@ -3032,10 +2168,10 @@
         <v>3128209327</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>4413131000</v>
@@ -3044,7 +2180,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>1973217</v>
@@ -3056,117 +2192,69 @@
         <v>23349</v>
       </c>
       <c r="O18">
-        <v>43.09</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>56.91</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="R18">
-        <v>6.39</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>4.12</v>
+        <v>1.31</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U18">
-        <v>28.11</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>4.47</v>
+        <v>31.61</v>
       </c>
       <c r="W18">
-        <v>56.91</v>
+        <v>29.9</v>
       </c>
       <c r="X18">
-        <v>86.67</v>
+        <v>34.36</v>
       </c>
       <c r="Y18">
-        <v>11.26</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>36.08</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>57.74</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF18">
         <v>0</v>
       </c>
-      <c r="AG18">
-        <v>1.31</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>1.31</v>
-      </c>
-      <c r="AJ18">
-        <v>1.5</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>31.61</v>
-      </c>
-      <c r="AM18">
-        <v>29.9</v>
-      </c>
-      <c r="AN18">
-        <v>34.36</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>36.08</v>
-      </c>
-      <c r="AS18">
-        <v>57.74</v>
-      </c>
-      <c r="AT18">
-        <v>4.31</v>
-      </c>
-      <c r="AU18">
-        <v>1.87</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>30039</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>202106</v>
@@ -3178,10 +2266,10 @@
         <v>3128209327</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>4413131000</v>
@@ -3190,7 +2278,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L19">
         <v>2415156</v>
@@ -3202,117 +2290,69 @@
         <v>20713</v>
       </c>
       <c r="O19">
-        <v>98.7</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1.3</v>
+        <v>3.59</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>7.12</v>
+        <v>0.73</v>
       </c>
       <c r="S19">
-        <v>55.69</v>
+        <v>22.04</v>
       </c>
       <c r="T19">
-        <v>12.97</v>
+        <v>0.88</v>
       </c>
       <c r="U19">
-        <v>2.9</v>
+        <v>14.74</v>
       </c>
       <c r="V19">
-        <v>20.03</v>
+        <v>1.15</v>
       </c>
       <c r="W19">
-        <v>1.3</v>
+        <v>10.81</v>
       </c>
       <c r="X19">
-        <v>36.59</v>
+        <v>46.05</v>
       </c>
       <c r="Y19">
-        <v>40.03</v>
+        <v>1.15</v>
       </c>
       <c r="Z19">
-        <v>23.38</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>47.44</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>51.09</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>3.59</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0.73</v>
-      </c>
-      <c r="AI19">
-        <v>22.04</v>
-      </c>
-      <c r="AJ19">
-        <v>0.88</v>
-      </c>
-      <c r="AK19">
-        <v>14.74</v>
-      </c>
-      <c r="AL19">
-        <v>1.15</v>
-      </c>
-      <c r="AM19">
-        <v>10.81</v>
-      </c>
-      <c r="AN19">
-        <v>46.05</v>
-      </c>
-      <c r="AO19">
-        <v>1.15</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>47.44</v>
-      </c>
-      <c r="AS19">
-        <v>51.09</v>
-      </c>
-      <c r="AT19">
-        <v>0.31</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>31769</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>202107</v>
@@ -3324,10 +2364,10 @@
         <v>3128209327</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>4413131000</v>
@@ -3336,7 +2376,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L20">
         <v>4138842</v>
@@ -3348,117 +2388,69 @@
         <v>51294</v>
       </c>
       <c r="O20">
-        <v>99.81</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>18.64</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>14.62</v>
+        <v>12.18</v>
       </c>
       <c r="T20">
-        <v>46.55</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>19.13</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0.87</v>
+        <v>12.87</v>
       </c>
       <c r="W20">
-        <v>0.19</v>
+        <v>11.93</v>
       </c>
       <c r="X20">
-        <v>35.9</v>
+        <v>63.02</v>
       </c>
       <c r="Y20">
-        <v>25.23</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>38.87</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>36.92</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>35.23</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>18.96</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>12.18</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>12.87</v>
-      </c>
-      <c r="AM20">
-        <v>11.93</v>
-      </c>
-      <c r="AN20">
-        <v>63.02</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>36.92</v>
-      </c>
-      <c r="AS20">
-        <v>35.23</v>
-      </c>
-      <c r="AT20">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AU20">
-        <v>18.96</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>33486</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>202108</v>
@@ -3470,10 +2462,10 @@
         <v>3128209327</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>4413131000</v>
@@ -3482,7 +2474,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L21">
         <v>1612857</v>
@@ -3494,117 +2486,69 @@
         <v>20019</v>
       </c>
       <c r="O21">
-        <v>97.88</v>
+        <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>2.81</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>2.62</v>
+      </c>
+      <c r="V21">
+        <v>4.53</v>
+      </c>
+      <c r="W21">
+        <v>34.44</v>
+      </c>
+      <c r="X21">
+        <v>55.6</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1.59</v>
+      </c>
+      <c r="AC21">
+        <v>63.97</v>
+      </c>
+      <c r="AD21">
         <v>2.12</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>19.39</v>
-      </c>
-      <c r="S21">
-        <v>33.62</v>
-      </c>
-      <c r="T21">
-        <v>23.63</v>
-      </c>
-      <c r="U21">
-        <v>19.51</v>
-      </c>
-      <c r="V21">
-        <v>1.72</v>
-      </c>
-      <c r="W21">
-        <v>2.12</v>
-      </c>
-      <c r="X21">
-        <v>3.84</v>
-      </c>
-      <c r="Y21">
-        <v>61.04</v>
-      </c>
-      <c r="Z21">
-        <v>35.12</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
       <c r="AE21">
-        <v>0</v>
+        <v>31.22</v>
       </c>
       <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>2.81</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>2.62</v>
-      </c>
-      <c r="AL21">
-        <v>4.53</v>
-      </c>
-      <c r="AM21">
-        <v>34.44</v>
-      </c>
-      <c r="AN21">
-        <v>55.6</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>1.59</v>
-      </c>
-      <c r="AS21">
-        <v>63.97</v>
-      </c>
-      <c r="AT21">
-        <v>2.12</v>
-      </c>
-      <c r="AU21">
-        <v>31.22</v>
-      </c>
-      <c r="AV21">
         <v>1.09</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>35214</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>202109</v>
@@ -3616,10 +2560,10 @@
         <v>3128209327</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <v>4413131000</v>
@@ -3628,7 +2572,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L22">
         <v>374579</v>
@@ -3640,7 +2584,7 @@
         <v>6453</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>27.87</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3649,108 +2593,60 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>7.75</v>
+        <v>2.82</v>
       </c>
       <c r="S22">
-        <v>50.55</v>
+        <v>10.85</v>
       </c>
       <c r="T22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>15.5</v>
+        <v>34.66</v>
       </c>
       <c r="V22">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="X22">
-        <v>37.59</v>
+        <v>16.91</v>
       </c>
       <c r="Y22">
-        <v>49.45</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>12.96</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>38.72</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>46.49</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>14.79</v>
       </c>
       <c r="AE22">
-        <v>27.87</v>
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>2.82</v>
-      </c>
-      <c r="AI22">
-        <v>10.85</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>34.66</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>6.9</v>
-      </c>
-      <c r="AN22">
-        <v>16.91</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>38.72</v>
-      </c>
-      <c r="AS22">
-        <v>46.49</v>
-      </c>
-      <c r="AT22">
-        <v>14.79</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>36942</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>202110</v>
@@ -3762,10 +2658,10 @@
         <v>3128209327</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>4413131000</v>
@@ -3774,7 +2670,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>2063110</v>
@@ -3786,52 +2682,52 @@
         <v>18405</v>
       </c>
       <c r="O23">
-        <v>89.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>10.82</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="R23">
-        <v>2.72</v>
+        <v>13.71</v>
       </c>
       <c r="S23">
-        <v>20.55</v>
+        <v>2.52</v>
       </c>
       <c r="T23">
-        <v>49.57</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.37</v>
+        <v>1.21</v>
       </c>
       <c r="V23">
-        <v>15.98</v>
+        <v>4.99</v>
       </c>
       <c r="W23">
-        <v>10.82</v>
+        <v>35.27</v>
       </c>
       <c r="X23">
-        <v>17.44</v>
+        <v>40.92</v>
       </c>
       <c r="Y23">
-        <v>19.29</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>63.27</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>60.21</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>25.88</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3839,64 +2735,16 @@
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23">
-        <v>1.38</v>
-      </c>
-      <c r="AH23">
-        <v>13.71</v>
-      </c>
-      <c r="AI23">
-        <v>2.52</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>1.21</v>
-      </c>
-      <c r="AL23">
-        <v>4.99</v>
-      </c>
-      <c r="AM23">
-        <v>35.27</v>
-      </c>
-      <c r="AN23">
-        <v>40.92</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>13.9</v>
-      </c>
-      <c r="AS23">
-        <v>60.21</v>
-      </c>
-      <c r="AT23">
-        <v>25.88</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>38675</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>202111</v>
@@ -3908,10 +2756,10 @@
         <v>3128209327</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>4413131000</v>
@@ -3920,7 +2768,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L24">
         <v>2314684</v>
@@ -3932,117 +2780,69 @@
         <v>26265</v>
       </c>
       <c r="O24">
-        <v>99.04000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="P24">
+        <v>70.64</v>
+      </c>
+      <c r="Q24">
+        <v>1.7</v>
+      </c>
+      <c r="R24">
         <v>0.96</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>2.17</v>
-      </c>
       <c r="S24">
-        <v>59.22</v>
+        <v>0.34</v>
       </c>
       <c r="T24">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="V24">
-        <v>32.97</v>
+        <v>0.78</v>
       </c>
       <c r="W24">
-        <v>0.96</v>
+        <v>11.91</v>
       </c>
       <c r="X24">
-        <v>14.74</v>
+        <v>11.65</v>
       </c>
       <c r="Y24">
-        <v>13.37</v>
+        <v>1.23</v>
       </c>
       <c r="Z24">
-        <v>71.89</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>92.61</v>
       </c>
       <c r="AE24">
-        <v>1.23</v>
+        <v>0.78</v>
       </c>
       <c r="AF24">
-        <v>70.64</v>
-      </c>
-      <c r="AG24">
-        <v>1.7</v>
-      </c>
-      <c r="AH24">
-        <v>0.96</v>
-      </c>
-      <c r="AI24">
-        <v>0.34</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0.78</v>
-      </c>
-      <c r="AL24">
-        <v>0.78</v>
-      </c>
-      <c r="AM24">
-        <v>11.91</v>
-      </c>
-      <c r="AN24">
-        <v>11.65</v>
-      </c>
-      <c r="AO24">
-        <v>1.23</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>1.63</v>
-      </c>
-      <c r="AS24">
-        <v>3.74</v>
-      </c>
-      <c r="AT24">
-        <v>92.61</v>
-      </c>
-      <c r="AU24">
-        <v>0.78</v>
-      </c>
-      <c r="AV24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>40401</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>202112</v>
@@ -4054,10 +2854,10 @@
         <v>3128209327</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>4413131000</v>
@@ -4066,7 +2866,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <v>1740479</v>
@@ -4078,117 +2878,69 @@
         <v>16795</v>
       </c>
       <c r="O25">
-        <v>98.65000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="P25">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>2.66</v>
+        <v>1.79</v>
       </c>
       <c r="S25">
-        <v>7.02</v>
+        <v>3.03</v>
       </c>
       <c r="T25">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>61.33</v>
+        <v>1.75</v>
       </c>
       <c r="V25">
-        <v>25.85</v>
+        <v>25.84</v>
       </c>
       <c r="W25">
-        <v>1.35</v>
+        <v>25.2</v>
       </c>
       <c r="X25">
-        <v>40.21</v>
+        <v>40.83</v>
       </c>
       <c r="Y25">
-        <v>30.24</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>29.55</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>68.45</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>23.64</v>
       </c>
       <c r="AE25">
-        <v>1.56</v>
+        <v>2.2</v>
       </c>
       <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>1.79</v>
-      </c>
-      <c r="AI25">
-        <v>3.03</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>1.75</v>
-      </c>
-      <c r="AL25">
-        <v>25.84</v>
-      </c>
-      <c r="AM25">
-        <v>25.2</v>
-      </c>
-      <c r="AN25">
-        <v>40.83</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>4.59</v>
-      </c>
-      <c r="AS25">
-        <v>68.45</v>
-      </c>
-      <c r="AT25">
-        <v>23.64</v>
-      </c>
-      <c r="AU25">
-        <v>2.2</v>
-      </c>
-      <c r="AV25">
         <v>1.12</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>42121</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>202201</v>
@@ -4200,10 +2952,10 @@
         <v>3128209327</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I26">
         <v>4413131000</v>
@@ -4212,7 +2964,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L26">
         <v>2322897</v>
@@ -4224,117 +2976,69 @@
         <v>14315</v>
       </c>
       <c r="O26">
-        <v>97.36</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="R26">
-        <v>8.289999999999999</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>28.03</v>
+        <v>0.34</v>
       </c>
       <c r="T26">
-        <v>2.57</v>
+        <v>1.46</v>
       </c>
       <c r="U26">
-        <v>5.54</v>
+        <v>1.28</v>
       </c>
       <c r="V26">
-        <v>52.93</v>
+        <v>4.51</v>
       </c>
       <c r="W26">
-        <v>2.64</v>
+        <v>5.07</v>
       </c>
       <c r="X26">
-        <v>8.630000000000001</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="Y26">
-        <v>37.56</v>
+        <v>1.46</v>
       </c>
       <c r="Z26">
-        <v>53.81</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>5.32</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>29.32</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>61.81</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>2.52</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0.34</v>
-      </c>
-      <c r="AJ26">
-        <v>1.46</v>
-      </c>
-      <c r="AK26">
-        <v>1.28</v>
-      </c>
-      <c r="AL26">
-        <v>4.51</v>
-      </c>
-      <c r="AM26">
-        <v>5.07</v>
-      </c>
-      <c r="AN26">
-        <v>84.81999999999999</v>
-      </c>
-      <c r="AO26">
-        <v>1.46</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>5.32</v>
-      </c>
-      <c r="AS26">
-        <v>29.32</v>
-      </c>
-      <c r="AT26">
-        <v>61.81</v>
-      </c>
-      <c r="AU26">
-        <v>1.28</v>
-      </c>
-      <c r="AV26">
         <v>0.8100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>43846</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>202202</v>
@@ -4346,10 +3050,10 @@
         <v>3128209327</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I27">
         <v>4413131000</v>
@@ -4358,7 +3062,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L27">
         <v>616201</v>
@@ -4370,117 +3074,69 @@
         <v>6976</v>
       </c>
       <c r="O27">
-        <v>88.62</v>
+        <v>4.22</v>
       </c>
       <c r="P27">
-        <v>11.38</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="R27">
-        <v>12.06</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>15.6</v>
+        <v>6.07</v>
       </c>
       <c r="T27">
-        <v>46.04</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>3.63</v>
+        <v>10.79</v>
       </c>
       <c r="V27">
-        <v>11.3</v>
+        <v>8.52</v>
       </c>
       <c r="W27">
-        <v>11.38</v>
+        <v>8.43</v>
       </c>
       <c r="X27">
-        <v>35.24</v>
+        <v>58.94</v>
       </c>
       <c r="Y27">
-        <v>12.65</v>
+        <v>4.22</v>
       </c>
       <c r="Z27">
-        <v>52.11</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>45.95</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>38.87</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>7.93</v>
       </c>
       <c r="AE27">
-        <v>4.22</v>
+        <v>3.04</v>
       </c>
       <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AG27">
-        <v>3.04</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>6.07</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>10.79</v>
-      </c>
-      <c r="AL27">
-        <v>8.52</v>
-      </c>
-      <c r="AM27">
-        <v>8.43</v>
-      </c>
-      <c r="AN27">
-        <v>58.94</v>
-      </c>
-      <c r="AO27">
-        <v>4.22</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>45.95</v>
-      </c>
-      <c r="AS27">
-        <v>38.87</v>
-      </c>
-      <c r="AT27">
-        <v>7.93</v>
-      </c>
-      <c r="AU27">
-        <v>3.04</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>45554</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>202203</v>
@@ -4492,10 +3148,10 @@
         <v>3128209327</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I28">
         <v>4413131000</v>
@@ -4504,7 +3160,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L28">
         <v>1765312</v>
@@ -4516,117 +3172,69 @@
         <v>21731</v>
       </c>
       <c r="O28">
-        <v>97.41</v>
+        <v>0</v>
       </c>
       <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>2.59</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
       <c r="R28">
-        <v>3.54</v>
+        <v>5.32</v>
       </c>
       <c r="S28">
-        <v>63.04</v>
+        <v>31.87</v>
       </c>
       <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>1.21</v>
+      </c>
+      <c r="W28">
+        <v>57.38</v>
+      </c>
+      <c r="X28">
         <v>1.64</v>
       </c>
-      <c r="U28">
-        <v>25.28</v>
-      </c>
-      <c r="V28">
-        <v>3.91</v>
-      </c>
-      <c r="W28">
-        <v>2.59</v>
-      </c>
-      <c r="X28">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
         <v>4.14</v>
       </c>
-      <c r="Y28">
-        <v>36.5</v>
-      </c>
-      <c r="Z28">
-        <v>59.36</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
       <c r="AC28">
-        <v>0</v>
+        <v>91.14</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>2.59</v>
-      </c>
-      <c r="AH28">
-        <v>5.32</v>
-      </c>
-      <c r="AI28">
-        <v>31.87</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>1.21</v>
-      </c>
-      <c r="AM28">
-        <v>57.38</v>
-      </c>
-      <c r="AN28">
-        <v>1.64</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>4.14</v>
-      </c>
-      <c r="AS28">
-        <v>91.14</v>
-      </c>
-      <c r="AT28">
-        <v>3.68</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
         <v>1.04</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>47272</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>202204</v>
@@ -4638,10 +3246,10 @@
         <v>3128209327</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>4413131000</v>
@@ -4650,7 +3258,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L29">
         <v>2063677</v>
@@ -4662,117 +3270,69 @@
         <v>19070</v>
       </c>
       <c r="O29">
-        <v>71.28</v>
+        <v>1.42</v>
       </c>
       <c r="P29">
-        <v>28.72</v>
+        <v>50.34</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="R29">
-        <v>29.35</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>3.6</v>
+        <v>0.85</v>
       </c>
       <c r="T29">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V29">
-        <v>36.44</v>
+        <v>2.35</v>
       </c>
       <c r="W29">
-        <v>28.72</v>
+        <v>34.75</v>
       </c>
       <c r="X29">
-        <v>13.59</v>
+        <v>4.57</v>
       </c>
       <c r="Y29">
-        <v>80.86</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>5.55</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>30.86</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>13.92</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>26.97</v>
       </c>
       <c r="AE29">
-        <v>1.42</v>
+        <v>28.25</v>
       </c>
       <c r="AF29">
-        <v>50.34</v>
-      </c>
-      <c r="AG29">
-        <v>2.88</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0.85</v>
-      </c>
-      <c r="AJ29">
-        <v>1.42</v>
-      </c>
-      <c r="AK29">
-        <v>1.42</v>
-      </c>
-      <c r="AL29">
-        <v>2.35</v>
-      </c>
-      <c r="AM29">
-        <v>34.75</v>
-      </c>
-      <c r="AN29">
-        <v>4.57</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>30.86</v>
-      </c>
-      <c r="AS29">
-        <v>13.92</v>
-      </c>
-      <c r="AT29">
-        <v>26.97</v>
-      </c>
-      <c r="AU29">
-        <v>28.25</v>
-      </c>
-      <c r="AV29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>48996</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>202205</v>
@@ -4784,10 +3344,10 @@
         <v>3128209327</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>4413131000</v>
@@ -4796,7 +3356,7 @@
         <v>39.82727272727273</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L30">
         <v>1929637</v>
@@ -4808,105 +3368,57 @@
         <v>18016</v>
       </c>
       <c r="O30">
-        <v>67.75</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>32.25</v>
+        <v>29.21</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="R30">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>3.51</v>
+        <v>1.67</v>
       </c>
       <c r="T30">
-        <v>55.51</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="V30">
-        <v>3.33</v>
+        <v>1.67</v>
       </c>
       <c r="W30">
-        <v>32.25</v>
+        <v>57.26</v>
       </c>
       <c r="X30">
-        <v>7.6</v>
+        <v>6.02</v>
       </c>
       <c r="Y30">
-        <v>38.36</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>54.05</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>5.11</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>59.42</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>30.88</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>29.21</v>
-      </c>
-      <c r="AG30">
-        <v>2.51</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>1.67</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>1.67</v>
-      </c>
-      <c r="AL30">
-        <v>1.67</v>
-      </c>
-      <c r="AM30">
-        <v>57.26</v>
-      </c>
-      <c r="AN30">
-        <v>6.02</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>5.11</v>
-      </c>
-      <c r="AS30">
-        <v>59.42</v>
-      </c>
-      <c r="AT30">
-        <v>30.88</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
         <v>4.59</v>
       </c>
     </row>
